--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_22.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165634.079999584</v>
+        <v>1185419.003752166</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1688887.019951506</v>
+        <v>1409000.69729498</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7011176.162754116</v>
+        <v>7060550.372378134</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9111613.922570534</v>
+        <v>9100925.307603894</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>221.002178698296</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,7 +671,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806814</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>26.49677716875706</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>269.5134569480836</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>62.56386682245563</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>62.33263748886699</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5615160058696</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>43.95772706123027</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>41.75100837039689</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>20.18367423906542</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>218.3734398702018</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.4368283879286</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1528,28 +1528,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.3823564508123</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>163.8608514409109</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>355.546756558266</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.26244145734483</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664345</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958667</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183509</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>129.2224443473097</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>223.1498336210773</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,10 +1859,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.84024676092039</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>201.2075889726221</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.454476553028011</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>2.454476553027955</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>206.6496618758919</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2096,7 +2096,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3610362708106</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183531</v>
+        <v>20.90078060183529</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>165.0140383262328</v>
+        <v>165.0140383262333</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>304.7358443710041</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>365.4760457686507</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2378,7 +2378,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>6.980384243197606</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>79.13107494872352</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2609,13 +2609,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>179.7188787253435</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>304.7358443710041</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>110.5025545488134</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>6.980384243197832</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2846,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>179.7188787253435</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>304.7358443710041</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>172.6132004054278</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>6.980384243197832</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3047,7 +3047,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,19 +3083,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3610362708106</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>174.3987346206246</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>11.82769080334843</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T34" t="n">
-        <v>165.0140383262328</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>335.4401382447544</v>
       </c>
       <c r="G35" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,10 +3320,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>229.9508864211352</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>144.8879095615765</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>56.35124001367978</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,22 +3472,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>25.06599159720328</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>61.2228378314524</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>110.5025545488134</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>70.51221904988512</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>339.0399185806811</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.0140383262327</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>43.2411395049469</v>
       </c>
     </row>
     <row r="44">
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>217.0086305536091</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>6.980384243197832</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>53.52313961439435</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.915471247702</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.515311311824</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>2134.371763268271</v>
       </c>
       <c r="C5" t="n">
-        <v>1122.952954307291</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.952954307291</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>737.1647017090463</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>326.1787969194388</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>2520.971603332393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="E7" t="n">
-        <v>580.2158906240411</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F7" t="n">
         <v>517.0200655508536</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>517.0200655508536</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2652.747346511929</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>2476.569858826099</v>
       </c>
     </row>
     <row r="9">
@@ -4893,7 +4893,7 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="E10" t="n">
-        <v>379.6592427198135</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="F10" t="n">
-        <v>379.6592427198135</v>
+        <v>517.0200655508537</v>
       </c>
       <c r="G10" t="n">
-        <v>210.6594424581459</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H10" t="n">
         <v>190.2718927217162</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2107.607341885688</v>
+        <v>2476.569858826099</v>
       </c>
       <c r="C11" t="n">
         <v>2107.607341885688</v>
@@ -5039,13 +5039,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2481.073100146768</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2481.073100146768</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2481.073100146768</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>2107.607341885688</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y11" t="n">
-        <v>2107.607341885688</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018223</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064342</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940985</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E13" t="n">
-        <v>517.0200655508537</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F13" t="n">
-        <v>517.0200655508537</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5236,13 +5236,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6129726499586</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064342</v>
+        <v>562.6129726499586</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>902.8449724373518</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C14" t="n">
-        <v>902.8449724373518</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D14" t="n">
-        <v>902.8449724373518</v>
+        <v>1209.855277145859</v>
       </c>
       <c r="E14" t="n">
-        <v>902.8449724373518</v>
+        <v>824.0670245476144</v>
       </c>
       <c r="F14" t="n">
-        <v>491.8590676477442</v>
+        <v>413.0811197580069</v>
       </c>
       <c r="G14" t="n">
-        <v>491.8590676477442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>75.17723181374775</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>318.8683807588021</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>871.6816390050013</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
-        <v>1058.381051830409</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1685.688719890255</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>2232.849924657333</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P14" t="n">
-        <v>2662.164970996627</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q14" t="n">
         <v>2697.149091018222</v>
@@ -5303,25 +5303,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2659.510261263329</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2659.510261263329</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2405.81855800848</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.81855800848</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>2053.049902738365</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1679.584144477285</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y14" t="n">
-        <v>1289.444812501474</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>967.3646662469702</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>792.9116369658432</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>643.9772273045919</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>484.7397722991365</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>338.2052143260214</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>200.7638166852434</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>99.84783883004796</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>296.5836898399692</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>800.9452297060877</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M15" t="n">
-        <v>1441.490579173192</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1640.147320825857</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2189.58332957858</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2613.551098059417</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
-        <v>2636.288039261394</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2615.176139663581</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2465.709350526216</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2268.720054686303</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2040.581267197469</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1805.429158965726</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1551.191802237525</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1343.340302031992</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1135.580003267038</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>651.4366193059393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>482.5004363780324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>332.3837969656967</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>184.4707033833035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>184.4707033833035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>184.4707033833035</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5437,49 +5437,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K16" t="n">
-        <v>154.9909114159743</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>339.8239063167927</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>545.0935070360306</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>750.9168718721348</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>925.0117672607337</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>1050.459343859349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>1053.877663279709</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>1053.877663279709</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X16" t="n">
-        <v>1053.877663279709</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y16" t="n">
-        <v>833.085084136179</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5489,46 +5489,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2452.998035652587</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C17" t="n">
-        <v>2084.035518712175</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D17" t="n">
-        <v>1725.769820105425</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>1339.981567507181</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F17" t="n">
-        <v>928.9956627175731</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G17" t="n">
-        <v>511.9078809540005</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H17" t="n">
-        <v>193.68476572651</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I17" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403559</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604005</v>
+        <v>666.0988071604013</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.912065406599</v>
+        <v>1218.9120654066</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449755</v>
+        <v>2477.937544449756</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P17" t="n">
         <v>3454.413795556125</v>
@@ -5540,25 +5540,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3664.397587885651</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3449.597726153362</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U17" t="n">
-        <v>3195.906022898513</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V17" t="n">
-        <v>3195.906022898513</v>
+        <v>3368.526868987455</v>
       </c>
       <c r="W17" t="n">
-        <v>2843.137367628399</v>
+        <v>3165.28688012622</v>
       </c>
       <c r="X17" t="n">
-        <v>2843.137367628399</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="Y17" t="n">
-        <v>2452.998035652587</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2030.666383316601</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>1856.213354035474</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>1707.278944374222</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>1548.041489368767</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>1401.506931395652</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>1264.065533754874</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>1163.149555899678</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>1117.244698889995</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J18" t="n">
-        <v>1117.244698889995</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K18" t="n">
-        <v>1184.852518553351</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L18" t="n">
-        <v>1689.214058419469</v>
+        <v>645.9611546560949</v>
       </c>
       <c r="M18" t="n">
-        <v>2329.759407886573</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N18" t="n">
-        <v>3002.965100139354</v>
+        <v>1959.712196375981</v>
       </c>
       <c r="O18" t="n">
-        <v>3552.401108892077</v>
+        <v>2509.148205128703</v>
       </c>
       <c r="P18" t="n">
-        <v>3676.852815129048</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q18" t="n">
-        <v>3699.589756331025</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>3678.477856733211</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>3529.011067595846</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>3332.021771755934</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>3103.8829842671</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>2868.730876035357</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>2614.493519307156</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>2406.642019101623</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>2198.881720336669</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J19" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K19" t="n">
         <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230479</v>
+        <v>359.872719623048</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422854</v>
+        <v>565.1423203422855</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783893</v>
+        <v>770.9656851783894</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669878</v>
+        <v>945.0605805669879</v>
       </c>
       <c r="P19" t="n">
         <v>1070.508157165603</v>
@@ -5698,25 +5698,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>1071.44720734048</v>
       </c>
       <c r="T19" t="n">
-        <v>848.2972798983277</v>
+        <v>845.818010652845</v>
       </c>
       <c r="U19" t="n">
-        <v>559.1451034760075</v>
+        <v>556.6658342305248</v>
       </c>
       <c r="V19" t="n">
-        <v>304.4606152701207</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="W19" t="n">
-        <v>304.4606152701207</v>
+        <v>301.9813460246378</v>
       </c>
       <c r="X19" t="n">
-        <v>76.47106437210334</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="Y19" t="n">
-        <v>76.47106437210334</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1975.039366445947</v>
+        <v>1865.553283416327</v>
       </c>
       <c r="C20" t="n">
-        <v>1606.076849505535</v>
+        <v>1496.590766475915</v>
       </c>
       <c r="D20" t="n">
-        <v>1606.076849505535</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E20" t="n">
-        <v>1220.288596907291</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F20" t="n">
-        <v>809.3026921176836</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G20" t="n">
-        <v>392.2149103541111</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I20" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403562</v>
       </c>
       <c r="K20" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406599</v>
@@ -5765,7 +5765,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P20" t="n">
         <v>3454.413795556125</v>
@@ -5783,19 +5783,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U20" t="n">
-        <v>3478.012952017075</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V20" t="n">
-        <v>3478.012952017075</v>
+        <v>3368.526868987455</v>
       </c>
       <c r="W20" t="n">
-        <v>3125.244296746961</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X20" t="n">
-        <v>2751.778538485881</v>
+        <v>2642.292455456261</v>
       </c>
       <c r="Y20" t="n">
-        <v>2361.639206510069</v>
+        <v>2252.153123480449</v>
       </c>
     </row>
     <row r="21">
@@ -5817,7 +5817,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
         <v>220.8126299914996</v>
@@ -5826,28 +5826,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835158</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893251</v>
+        <v>403.4201994324299</v>
       </c>
       <c r="L21" t="n">
-        <v>1026.440991155443</v>
+        <v>907.7817392985478</v>
       </c>
       <c r="M21" t="n">
-        <v>1253.562877620961</v>
+        <v>1548.327088765652</v>
       </c>
       <c r="N21" t="n">
-        <v>1452.219619273625</v>
+        <v>1746.983830418316</v>
       </c>
       <c r="O21" t="n">
-        <v>2001.655628026347</v>
+        <v>2296.419839171038</v>
       </c>
       <c r="P21" t="n">
-        <v>2425.623396507183</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5920,13 +5920,13 @@
         <v>3190.805600087348</v>
       </c>
       <c r="N22" t="n">
-        <v>3396.628964923451</v>
+        <v>3396.628964923452</v>
       </c>
       <c r="O22" t="n">
         <v>3570.72386031205</v>
       </c>
       <c r="P22" t="n">
-        <v>3696.171436910665</v>
+        <v>3696.171436910666</v>
       </c>
       <c r="Q22" t="n">
         <v>3699.589756331025</v>
@@ -5947,7 +5947,7 @@
         <v>3155.753091702818</v>
       </c>
       <c r="W22" t="n">
-        <v>2866.335921665857</v>
+        <v>2866.335921665858</v>
       </c>
       <c r="X22" t="n">
         <v>2699.655074871683</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1964.630235431592</v>
+        <v>1998.4614202256</v>
       </c>
       <c r="C23" t="n">
-        <v>1595.66771849118</v>
+        <v>1629.498903285188</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.853734278045</v>
+        <v>1271.233204678438</v>
       </c>
       <c r="E23" t="n">
         <v>902.0654816798005</v>
@@ -5978,19 +5978,19 @@
         <v>491.079576890193</v>
       </c>
       <c r="G23" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H23" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I23" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J23" t="n">
         <v>262.6316941403563</v>
       </c>
       <c r="K23" t="n">
-        <v>666.098807160401</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L23" t="n">
         <v>1218.912065406599</v>
@@ -6023,16 +6023,16 @@
         <v>3445.898053076176</v>
       </c>
       <c r="V23" t="n">
-        <v>3114.835165732605</v>
+        <v>3114.835165732606</v>
       </c>
       <c r="W23" t="n">
-        <v>3114.835165732605</v>
+        <v>2762.066510462491</v>
       </c>
       <c r="X23" t="n">
-        <v>2741.369407471525</v>
+        <v>2388.600752201412</v>
       </c>
       <c r="Y23" t="n">
-        <v>2351.230075495714</v>
+        <v>1998.4614202256</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2030.666383316601</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C24" t="n">
-        <v>1856.213354035474</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D24" t="n">
-        <v>1707.278944374222</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E24" t="n">
-        <v>1548.041489368767</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F24" t="n">
-        <v>1401.506931395652</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G24" t="n">
-        <v>1264.065533754874</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H24" t="n">
-        <v>1163.149555899678</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I24" t="n">
-        <v>1117.244698889995</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J24" t="n">
-        <v>1117.244698889995</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K24" t="n">
-        <v>1446.673103195804</v>
+        <v>316.6325031462302</v>
       </c>
       <c r="L24" t="n">
-        <v>1850.746009288104</v>
+        <v>820.994043012348</v>
       </c>
       <c r="M24" t="n">
-        <v>2030.243345642708</v>
+        <v>1461.539392479452</v>
       </c>
       <c r="N24" t="n">
-        <v>2703.44903789549</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O24" t="n">
-        <v>3252.885046648212</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P24" t="n">
-        <v>3676.852815129048</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q24" t="n">
-        <v>3699.589756331025</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R24" t="n">
-        <v>3678.477856733211</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S24" t="n">
-        <v>3529.011067595846</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T24" t="n">
-        <v>3332.021771755934</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U24" t="n">
-        <v>3103.8829842671</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V24" t="n">
-        <v>2868.730876035357</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W24" t="n">
-        <v>2614.493519307156</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X24" t="n">
-        <v>2406.642019101623</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y24" t="n">
-        <v>2198.881720336669</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="25">
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>221.9048887090136</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="C25" t="n">
-        <v>221.9048887090136</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="D25" t="n">
-        <v>221.9048887090136</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E25" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F25" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G25" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H25" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I25" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J25" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K25" t="n">
         <v>175.03972472223</v>
@@ -6178,19 +6178,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U25" t="n">
-        <v>1073.926476585963</v>
+        <v>1066.875583411016</v>
       </c>
       <c r="V25" t="n">
-        <v>819.2419883800759</v>
+        <v>812.1910952051287</v>
       </c>
       <c r="W25" t="n">
-        <v>529.8248183431153</v>
+        <v>522.773925168168</v>
       </c>
       <c r="X25" t="n">
-        <v>301.835267445098</v>
+        <v>294.7843742701506</v>
       </c>
       <c r="Y25" t="n">
-        <v>221.9048887090136</v>
+        <v>73.99179512662052</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2015.081949825207</v>
+        <v>1656.816251218457</v>
       </c>
       <c r="C26" t="n">
-        <v>1646.119432884795</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="D26" t="n">
         <v>1287.853734278045</v>
@@ -6227,13 +6227,13 @@
         <v>262.6316941403561</v>
       </c>
       <c r="K26" t="n">
-        <v>666.0988071604006</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L26" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M26" t="n">
-        <v>1850.629876389909</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N26" t="n">
         <v>2477.937544449755</v>
@@ -6257,19 +6257,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U26" t="n">
-        <v>3699.589756331025</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V26" t="n">
-        <v>3518.055535396335</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W26" t="n">
-        <v>3165.28688012622</v>
+        <v>2807.02118151947</v>
       </c>
       <c r="X26" t="n">
-        <v>2791.82112186514</v>
+        <v>2433.55542325839</v>
       </c>
       <c r="Y26" t="n">
-        <v>2401.681789889329</v>
+        <v>2043.416091282578</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4134795532265</v>
+        <v>2030.666383316601</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9604502720995</v>
+        <v>1856.213354035474</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0260406108482</v>
+        <v>1707.278944374222</v>
       </c>
       <c r="E27" t="n">
-        <v>504.7885856053927</v>
+        <v>1548.041489368767</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2540276322776</v>
+        <v>1401.506931395652</v>
       </c>
       <c r="G27" t="n">
-        <v>220.8126299914996</v>
+        <v>1264.065533754874</v>
       </c>
       <c r="H27" t="n">
-        <v>119.8966521363041</v>
+        <v>1163.149555899678</v>
       </c>
       <c r="I27" t="n">
-        <v>73.9917951266205</v>
+        <v>1117.244698889995</v>
       </c>
       <c r="J27" t="n">
-        <v>73.9917951266205</v>
+        <v>1117.244698889995</v>
       </c>
       <c r="K27" t="n">
-        <v>141.599614789977</v>
+        <v>1446.673103195804</v>
       </c>
       <c r="L27" t="n">
-        <v>346.4450924122301</v>
+        <v>1951.034643061922</v>
       </c>
       <c r="M27" t="n">
-        <v>986.990441879334</v>
+        <v>2591.579992529025</v>
       </c>
       <c r="N27" t="n">
-        <v>1660.196134132116</v>
+        <v>2790.236734181689</v>
       </c>
       <c r="O27" t="n">
-        <v>2209.632142884838</v>
+        <v>3339.672742934411</v>
       </c>
       <c r="P27" t="n">
-        <v>2633.599911365674</v>
+        <v>3676.852815129048</v>
       </c>
       <c r="Q27" t="n">
-        <v>2656.336852567651</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R27" t="n">
-        <v>2635.224952969837</v>
+        <v>3678.477856733211</v>
       </c>
       <c r="S27" t="n">
-        <v>2485.758163832472</v>
+        <v>3529.011067595846</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.76886799256</v>
+        <v>3332.021771755934</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.630080503725</v>
+        <v>3103.8829842671</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.477972271983</v>
+        <v>2868.730876035357</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.240615543781</v>
+        <v>2614.493519307156</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.389115338248</v>
+        <v>2406.642019101623</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.628816573294</v>
+        <v>2198.881720336669</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.9917951266205</v>
+        <v>335.7271765074546</v>
       </c>
       <c r="C28" t="n">
-        <v>73.9917951266205</v>
+        <v>224.1084345389562</v>
       </c>
       <c r="D28" t="n">
         <v>73.9917951266205</v>
@@ -6415,19 +6415,19 @@
         <v>1073.926476585963</v>
       </c>
       <c r="U28" t="n">
-        <v>1066.875583411015</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V28" t="n">
-        <v>812.1910952051285</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W28" t="n">
-        <v>522.7739251681679</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="X28" t="n">
-        <v>294.7843742701506</v>
+        <v>556.5197556509847</v>
       </c>
       <c r="Y28" t="n">
-        <v>73.9917951266205</v>
+        <v>335.7271765074546</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2015.081949825207</v>
+        <v>1656.816251218457</v>
       </c>
       <c r="C29" t="n">
-        <v>1646.119432884795</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="D29" t="n">
         <v>1287.853734278045</v>
@@ -6461,22 +6461,22 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J29" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K29" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L29" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M29" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N29" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O29" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P29" t="n">
         <v>3454.413795556125</v>
@@ -6494,19 +6494,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U29" t="n">
-        <v>3699.589756331025</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V29" t="n">
-        <v>3518.055535396335</v>
+        <v>3114.835165732605</v>
       </c>
       <c r="W29" t="n">
-        <v>3165.28688012622</v>
+        <v>2807.02118151947</v>
       </c>
       <c r="X29" t="n">
-        <v>2791.82112186514</v>
+        <v>2433.55542325839</v>
       </c>
       <c r="Y29" t="n">
-        <v>2401.681789889329</v>
+        <v>2043.416091282578</v>
       </c>
     </row>
     <row r="30">
@@ -6546,16 +6546,16 @@
         <v>403.4201994324298</v>
       </c>
       <c r="L30" t="n">
-        <v>820.994043012348</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M30" t="n">
-        <v>1461.539392479452</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N30" t="n">
-        <v>1660.196134132116</v>
+        <v>1746.983830418315</v>
       </c>
       <c r="O30" t="n">
-        <v>2209.632142884838</v>
+        <v>2296.419839171037</v>
       </c>
       <c r="P30" t="n">
         <v>2633.599911365674</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3187.314742216542</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C31" t="n">
-        <v>3018.378559288635</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D31" t="n">
-        <v>2868.2619198763</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E31" t="n">
-        <v>2868.2619198763</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F31" t="n">
-        <v>2868.2619198763</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G31" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H31" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I31" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J31" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K31" t="n">
-        <v>2800.703004467292</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L31" t="n">
-        <v>2985.53599936811</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M31" t="n">
-        <v>3190.805600087348</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N31" t="n">
-        <v>3396.628964923451</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O31" t="n">
-        <v>3570.72386031205</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P31" t="n">
-        <v>3696.171436910665</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q31" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R31" t="n">
-        <v>3569.111795050428</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S31" t="n">
-        <v>3361.671510302833</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T31" t="n">
-        <v>3361.671510302833</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U31" t="n">
-        <v>3361.671510302833</v>
+        <v>1066.875583411015</v>
       </c>
       <c r="V31" t="n">
-        <v>3361.671510302833</v>
+        <v>812.1910952051285</v>
       </c>
       <c r="W31" t="n">
-        <v>3361.671510302833</v>
+        <v>522.7739251681679</v>
       </c>
       <c r="X31" t="n">
-        <v>3361.671510302833</v>
+        <v>294.7843742701506</v>
       </c>
       <c r="Y31" t="n">
-        <v>3361.671510302833</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="32">
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1975.039366445947</v>
+        <v>2452.998035652587</v>
       </c>
       <c r="C32" t="n">
-        <v>1606.076849505535</v>
+        <v>2084.035518712175</v>
       </c>
       <c r="D32" t="n">
-        <v>1606.076849505535</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E32" t="n">
-        <v>1220.288596907291</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F32" t="n">
-        <v>809.3026921176836</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G32" t="n">
-        <v>392.2149103541111</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H32" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I32" t="n">
         <v>73.9917951266205</v>
       </c>
       <c r="J32" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403562</v>
       </c>
       <c r="K32" t="n">
         <v>666.0988071604008</v>
@@ -6731,19 +6731,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U32" t="n">
-        <v>3478.012952017075</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V32" t="n">
-        <v>3478.012952017075</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W32" t="n">
-        <v>3125.244296746961</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="X32" t="n">
-        <v>2751.778538485881</v>
+        <v>3015.75821371734</v>
       </c>
       <c r="Y32" t="n">
-        <v>2361.639206510069</v>
+        <v>2839.597875716709</v>
       </c>
     </row>
     <row r="33">
@@ -6780,7 +6780,7 @@
         <v>73.9917951266205</v>
       </c>
       <c r="K33" t="n">
-        <v>403.4201994324298</v>
+        <v>316.6325031462302</v>
       </c>
       <c r="L33" t="n">
         <v>820.994043012348</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2699.655074871683</v>
+        <v>236.0555969665809</v>
       </c>
       <c r="C34" t="n">
-        <v>2699.655074871683</v>
+        <v>224.1084345389562</v>
       </c>
       <c r="D34" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E34" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F34" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G34" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H34" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I34" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J34" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K34" t="n">
-        <v>2800.703004467292</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L34" t="n">
-        <v>2985.53599936811</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M34" t="n">
-        <v>3190.805600087348</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N34" t="n">
-        <v>3396.628964923451</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O34" t="n">
-        <v>3570.72386031205</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P34" t="n">
-        <v>3696.171436910665</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q34" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R34" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S34" t="n">
-        <v>3699.589756331025</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="T34" t="n">
-        <v>3532.90890953685</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="U34" t="n">
-        <v>3243.75673311453</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="V34" t="n">
-        <v>2989.072244908643</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="W34" t="n">
-        <v>2699.655074871683</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="X34" t="n">
-        <v>2699.655074871683</v>
+        <v>638.4966409403507</v>
       </c>
       <c r="Y34" t="n">
-        <v>2699.655074871683</v>
+        <v>417.7040617968206</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1964.342548112286</v>
+        <v>1942.924467505048</v>
       </c>
       <c r="C35" t="n">
-        <v>1964.342548112286</v>
+        <v>1573.961950564637</v>
       </c>
       <c r="D35" t="n">
-        <v>1606.076849505535</v>
+        <v>1215.696251957886</v>
       </c>
       <c r="E35" t="n">
-        <v>1220.288596907291</v>
+        <v>829.907999359642</v>
       </c>
       <c r="F35" t="n">
-        <v>809.3026921176836</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G35" t="n">
-        <v>392.2149103541111</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H35" t="n">
         <v>73.9917951266205</v>
@@ -6935,10 +6935,10 @@
         <v>73.9917951266205</v>
       </c>
       <c r="J35" t="n">
-        <v>262.6316941403562</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K35" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L35" t="n">
         <v>1218.912065406599</v>
@@ -6968,19 +6968,19 @@
         <v>3699.589756331025</v>
       </c>
       <c r="U35" t="n">
-        <v>3699.589756331025</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="V35" t="n">
-        <v>3467.316133683414</v>
+        <v>3445.898053076176</v>
       </c>
       <c r="W35" t="n">
-        <v>3114.547478413299</v>
+        <v>3093.129397806062</v>
       </c>
       <c r="X35" t="n">
-        <v>2741.08172015222</v>
+        <v>2719.663639544982</v>
       </c>
       <c r="Y35" t="n">
-        <v>2350.942388176408</v>
+        <v>2329.52430756917</v>
       </c>
     </row>
     <row r="36">
@@ -7026,10 +7026,10 @@
         <v>1548.327088765651</v>
       </c>
       <c r="N36" t="n">
-        <v>1746.983830418315</v>
+        <v>2221.532781018433</v>
       </c>
       <c r="O36" t="n">
-        <v>2296.419839171037</v>
+        <v>2381.045093687193</v>
       </c>
       <c r="P36" t="n">
         <v>2633.599911365674</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2756.575519329945</v>
+        <v>370.4598583385284</v>
       </c>
       <c r="C37" t="n">
-        <v>2756.575519329945</v>
+        <v>224.1084345389562</v>
       </c>
       <c r="D37" t="n">
-        <v>2756.575519329945</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E37" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F37" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G37" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H37" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I37" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J37" t="n">
-        <v>2699.655074871683</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K37" t="n">
-        <v>2800.703004467292</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L37" t="n">
-        <v>2985.53599936811</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M37" t="n">
-        <v>3190.805600087348</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N37" t="n">
-        <v>3396.628964923451</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O37" t="n">
-        <v>3570.72386031205</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P37" t="n">
-        <v>3696.171436910665</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q37" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R37" t="n">
-        <v>3699.589756331025</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S37" t="n">
-        <v>3492.149471583431</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T37" t="n">
-        <v>3266.520274895795</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U37" t="n">
-        <v>2977.368098473475</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V37" t="n">
-        <v>2977.368098473475</v>
+        <v>819.2419883800759</v>
       </c>
       <c r="W37" t="n">
-        <v>2977.368098473475</v>
+        <v>819.2419883800759</v>
       </c>
       <c r="X37" t="n">
-        <v>2977.368098473475</v>
+        <v>591.2524374820586</v>
       </c>
       <c r="Y37" t="n">
-        <v>2756.575519329945</v>
+        <v>370.4598583385284</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2015.081949825207</v>
+        <v>2134.774920425097</v>
       </c>
       <c r="C38" t="n">
-        <v>1646.119432884795</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D38" t="n">
-        <v>1287.853734278045</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E38" t="n">
-        <v>902.0654816798005</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F38" t="n">
-        <v>491.079576890193</v>
+        <v>610.7725474900825</v>
       </c>
       <c r="G38" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="H38" t="n">
-        <v>73.9917951266205</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I38" t="n">
         <v>73.9917951266205</v>
       </c>
       <c r="J38" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403566</v>
       </c>
       <c r="K38" t="n">
-        <v>666.0988071604008</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L38" t="n">
         <v>1218.912065406599</v>
@@ -7187,7 +7187,7 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O38" t="n">
-        <v>3025.098749216831</v>
+        <v>3025.098749216832</v>
       </c>
       <c r="P38" t="n">
         <v>3454.413795556125</v>
@@ -7199,25 +7199,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S38" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T38" t="n">
-        <v>3543.374718827853</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U38" t="n">
-        <v>3518.055535396335</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V38" t="n">
-        <v>3518.055535396335</v>
+        <v>3637.748505996225</v>
       </c>
       <c r="W38" t="n">
-        <v>3165.28688012622</v>
+        <v>3284.97985072611</v>
       </c>
       <c r="X38" t="n">
-        <v>2791.82112186514</v>
+        <v>2911.51409246503</v>
       </c>
       <c r="Y38" t="n">
-        <v>2401.681789889329</v>
+        <v>2521.374760489219</v>
       </c>
     </row>
     <row r="39">
@@ -7263,10 +7263,10 @@
         <v>1548.327088765651</v>
       </c>
       <c r="N39" t="n">
-        <v>1746.983830418315</v>
+        <v>2221.532781018433</v>
       </c>
       <c r="O39" t="n">
-        <v>2296.419839171037</v>
+        <v>2381.045093687193</v>
       </c>
       <c r="P39" t="n">
         <v>2633.599911365674</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>198.5034697522943</v>
+        <v>335.7271765074546</v>
       </c>
       <c r="C40" t="n">
-        <v>198.5034697522943</v>
+        <v>224.1084345389562</v>
       </c>
       <c r="D40" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E40" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F40" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G40" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H40" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I40" t="n">
         <v>73.9917951266205</v>
@@ -7360,22 +7360,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T40" t="n">
-        <v>848.2972798983277</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U40" t="n">
-        <v>559.1451034760075</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="V40" t="n">
-        <v>487.9206397892549</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="W40" t="n">
-        <v>198.5034697522943</v>
+        <v>784.5093065490021</v>
       </c>
       <c r="X40" t="n">
-        <v>198.5034697522943</v>
+        <v>556.5197556509847</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.5034697522943</v>
+        <v>335.7271765074546</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C41" t="n">
-        <v>1177.981643776797</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D41" t="n">
-        <v>1177.981643776797</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E41" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F41" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>75.17723181374721</v>
+        <v>75.1772318137472</v>
       </c>
       <c r="K41" t="n">
         <v>157.7403863883387</v>
@@ -7418,13 +7418,13 @@
         <v>297.069042229591</v>
       </c>
       <c r="M41" t="n">
-        <v>928.7868532129016</v>
+        <v>848.1892110771065</v>
       </c>
       <c r="N41" t="n">
-        <v>1556.094521272747</v>
+        <v>1475.496879136952</v>
       </c>
       <c r="O41" t="n">
-        <v>2103.255726039823</v>
+        <v>2022.658083904028</v>
       </c>
       <c r="P41" t="n">
         <v>2451.973130243322</v>
@@ -7451,10 +7451,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>2354.684526795312</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>200.7638166852435</v>
       </c>
       <c r="H42" t="n">
-        <v>99.84783883004808</v>
+        <v>99.84783883004806</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>383.3713861261738</v>
+        <v>296.5836898399743</v>
       </c>
       <c r="L42" t="n">
-        <v>887.7329259922916</v>
+        <v>800.9452297060922</v>
       </c>
       <c r="M42" t="n">
-        <v>1528.278275459395</v>
+        <v>1441.490579173196</v>
       </c>
       <c r="N42" t="n">
-        <v>1726.935017112059</v>
+        <v>1640.14732082586</v>
       </c>
       <c r="O42" t="n">
-        <v>2276.371025864782</v>
+        <v>2189.583329578582</v>
       </c>
       <c r="P42" t="n">
         <v>2613.551098059418</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>220.6238286145389</v>
+        <v>539.3991033352811</v>
       </c>
       <c r="C43" t="n">
-        <v>220.6238286145389</v>
+        <v>370.4629204073742</v>
       </c>
       <c r="D43" t="n">
-        <v>220.6238286145389</v>
+        <v>370.4629204073742</v>
       </c>
       <c r="E43" t="n">
-        <v>220.6238286145389</v>
+        <v>222.549826824981</v>
       </c>
       <c r="F43" t="n">
-        <v>220.6238286145389</v>
+        <v>222.549826824981</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>154.9909114159739</v>
@@ -7603,16 +7603,16 @@
         <v>764.7254868573864</v>
       </c>
       <c r="V43" t="n">
-        <v>510.0409986514995</v>
+        <v>764.7254868573864</v>
       </c>
       <c r="W43" t="n">
-        <v>220.6238286145389</v>
+        <v>764.7254868573864</v>
       </c>
       <c r="X43" t="n">
-        <v>220.6238286145389</v>
+        <v>764.7254868573864</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.6238286145389</v>
+        <v>721.0475681655208</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1546.944160717209</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>1177.981643776797</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D44" t="n">
-        <v>1177.981643776797</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1933911785532</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F44" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>75.17723181374721</v>
+        <v>242.5828808341003</v>
       </c>
       <c r="K44" t="n">
-        <v>192.4307036906716</v>
+        <v>646.0499938541449</v>
       </c>
       <c r="L44" t="n">
-        <v>745.2439619368698</v>
+        <v>859.6366960149659</v>
       </c>
       <c r="M44" t="n">
-        <v>1376.96177292018</v>
+        <v>1491.354506998277</v>
       </c>
       <c r="N44" t="n">
-        <v>2004.269440980026</v>
+        <v>1685.688719890258</v>
       </c>
       <c r="O44" t="n">
-        <v>2551.430645747103</v>
+        <v>2232.849924657334</v>
       </c>
       <c r="P44" t="n">
         <v>2662.164970996628</v>
@@ -7679,19 +7679,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.457387763373</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.149091018222</v>
+        <v>2112.394500419802</v>
       </c>
       <c r="W44" t="n">
-        <v>2697.149091018222</v>
+        <v>1759.625845149688</v>
       </c>
       <c r="X44" t="n">
-        <v>2323.683332757143</v>
+        <v>1386.160086888608</v>
       </c>
       <c r="Y44" t="n">
-        <v>1933.544000781331</v>
+        <v>1386.160086888608</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>200.7638166852435</v>
       </c>
       <c r="H45" t="n">
-        <v>99.84783883004808</v>
+        <v>99.84783883004806</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>121.5508014837209</v>
+        <v>383.3713861261737</v>
       </c>
       <c r="L45" t="n">
-        <v>625.9123413498388</v>
+        <v>887.7329259922915</v>
       </c>
       <c r="M45" t="n">
-        <v>1266.457690816943</v>
+        <v>1528.278275459395</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.14732082586</v>
+        <v>1726.935017112059</v>
       </c>
       <c r="O45" t="n">
-        <v>2189.583329578582</v>
+        <v>2276.371025864782</v>
       </c>
       <c r="P45" t="n">
         <v>2613.551098059418</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>818.1654210611898</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>649.2292381332829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>649.2292381332829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>501.3161445508898</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>501.3161445508898</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>332.7092995462732</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>178.4546564460383</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>154.9909114159739</v>
@@ -7837,19 +7837,19 @@
         <v>1053.877663279707</v>
       </c>
       <c r="U46" t="n">
-        <v>1053.877663279707</v>
+        <v>1046.826770104759</v>
       </c>
       <c r="V46" t="n">
-        <v>1053.877663279707</v>
+        <v>792.1422818988725</v>
       </c>
       <c r="W46" t="n">
-        <v>1053.877663279707</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X46" t="n">
-        <v>999.8138858914295</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y46" t="n">
-        <v>999.8138858914295</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8924,16 +8924,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>162.7555498691535</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,19 +9003,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>176.8008973295431</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928696</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>15.92129162593299</v>
+        <v>15.92129162593248</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928668</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>48.10560617264085</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569069</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>6.233205181928696</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>176.8008973295487</v>
       </c>
       <c r="L24" t="n">
-        <v>269.5386950268762</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9954,22 +9954,22 @@
         <v>6.233205181928696</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>68.29886828945442</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569083</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>283.1760056204293</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569079</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>6.233205181928696</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>176.8008973295487</v>
       </c>
       <c r="L33" t="n">
-        <v>283.1760056204293</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10674,13 +10674,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>230.7984289569079</v>
+        <v>145.3183738900836</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>230.7984289569079</v>
+        <v>145.3183738900836</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>368.101773759706</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>240.3869484383569</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,7 +11139,7 @@
         <v>6.233205181928696</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>176.8008973295489</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>230.7984289569074</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>35.04072454781102</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>75.008127595524</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>6.233205181928696</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,13 +11385,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>176.8008973295489</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569074</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>144.2707130727115</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,7 +22559,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.74425144011354</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -22610,7 +22610,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,22 +22711,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,16 +22750,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22784,10 +22784,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>338.7761146022505</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22796,13 +22796,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>144.2707130727114</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,10 +22829,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22847,10 +22847,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22948,10 +22948,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>82.85718120047562</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22987,10 +22987,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>149.8129014611519</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23033,13 +23033,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,10 +23066,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.52067551358146</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -23087,7 +23087,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23182,7 +23182,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>106.8644646478155</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23194,13 +23194,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>135.9872146027297</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>164.3604017932788</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,7 +23312,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>91.78733912036074</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,7 +23321,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>86.05160619575688</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23437,7 +23437,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>122.6621468956801</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>58.23741346252899</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>117.3904456707953</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23650,31 +23650,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>23.48965232192285</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,28 +23695,28 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>63.3731647155137</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23780,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>119.8126403672199</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>148.0333797447909</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>177.3775036289093</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23911,7 +23911,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176918</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001187</v>
+        <v>202.9114053470907</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>148.0333797447911</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23984,10 +23984,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938906</v>
+        <v>118.4960408938905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24023,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>31.79374995149004</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24148,7 +24148,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176918</v>
+        <v>17.69584188176917</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>60.6956170628043</v>
+        <v>60.69561706280385</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24203,16 +24203,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>49.94719724967888</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>16.45432430361103</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24418,7 +24418,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>279.2802704148994</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>139.4535784033713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24497,13 +24497,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>148.0333797447914</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>44.50512434640893</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>56.74426654981445</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24655,10 +24655,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
-        <v>279.2802704148992</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24734,13 +24734,13 @@
         <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>148.0333797447914</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>44.50512434640893</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>7.218779776509535</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H31" t="n">
         <v>152.7120966692326</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T31" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>279.2802704148992</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24935,7 +24935,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24971,19 +24971,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>31.79374995149004</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>211.839204035429</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>155.4191302952794</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25123,25 +25123,25 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S34" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>58.35886639452585</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25154,7 +25154,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25163,13 +25163,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>71.43590749695704</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
         <v>118.4960408938906</v>
@@ -25208,10 +25208,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>97.80137204899972</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>22.35891153705137</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>90.08272263288939</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25360,22 +25360,22 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25409,7 +25409,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25439,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T38" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>226.0887946250973</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>266.5294206386825</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>56.74426654981445</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25567,7 +25567,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J40" t="n">
         <v>17.69584188176918</v>
@@ -25600,22 +25600,22 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
-        <v>181.6254242739429</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>88.92504442304141</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
         <v>315.0408840752156</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,22 +25783,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>1.90673822833773</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
@@ -25843,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>175.3435138471479</v>
       </c>
     </row>
     <row r="44">
@@ -25862,22 +25862,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>165.7252111098715</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>88.92504442304141</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
         <v>315.0408840752156</v>
@@ -25919,19 +25919,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J46" t="n">
         <v>17.69584188176918</v>
@@ -26077,19 +26077,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.260654658097</v>
+        <v>279.2802704148992</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>172.1865157746428</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>729397.9021790258</v>
+        <v>729397.9021790256</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741902.0698922939</v>
+        <v>729397.9021790257</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>842700.5863150563</v>
+        <v>842700.5863150562</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>842700.5863150561</v>
+        <v>842700.5863150562</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>842700.586315056</v>
+        <v>842700.5863150561</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>842700.5863150561</v>
+        <v>842700.5863150562</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>842700.586315056</v>
+        <v>842700.5863150561</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>741902.0698922935</v>
+        <v>741902.0698922937</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>741902.0698922935</v>
+        <v>741902.0698922938</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
+        <v>318067.8710173334</v>
+      </c>
+      <c r="E2" t="n">
         <v>318067.8710173335</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>318067.8710173334</v>
       </c>
-      <c r="F2" t="n">
-        <v>328930.1971346178</v>
-      </c>
       <c r="G2" t="n">
-        <v>371509.2212626556</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="H2" t="n">
-        <v>371509.2212626557</v>
+        <v>371509.2212626558</v>
       </c>
       <c r="I2" t="n">
-        <v>371509.2212626557</v>
+        <v>371509.2212626558</v>
       </c>
       <c r="J2" t="n">
         <v>371509.2212626559</v>
@@ -26344,13 +26344,13 @@
         <v>371509.2212626557</v>
       </c>
       <c r="M2" t="n">
-        <v>371509.2212626558</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="N2" t="n">
-        <v>371509.2212626558</v>
+        <v>371509.2212626557</v>
       </c>
       <c r="O2" t="n">
-        <v>328930.1971346176</v>
+        <v>328930.1971346177</v>
       </c>
       <c r="P2" t="n">
         <v>328930.1971346177</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,10 +26375,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>170524.6254696468</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>68688.48743806365</v>
+        <v>236417.6520004549</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>26486.66836975815</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="H4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638622</v>
       </c>
       <c r="I4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="J4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="K4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="L4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="M4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="N4" t="n">
-        <v>35067.62056791536</v>
+        <v>32774.53910638623</v>
       </c>
       <c r="O4" t="n">
-        <v>26486.66836975824</v>
+        <v>24757.22927901077</v>
       </c>
       <c r="P4" t="n">
-        <v>26486.66836975824</v>
+        <v>24757.22927901077</v>
       </c>
     </row>
     <row r="5">
@@ -26479,16 +26479,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="F5" t="n">
-        <v>53934.4451708468</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="I5" t="n">
-        <v>69171.54328360136</v>
+        <v>69171.54328360138</v>
       </c>
       <c r="J5" t="n">
         <v>69171.54328360136</v>
@@ -26506,10 +26506,10 @@
         <v>69171.54328360136</v>
       </c>
       <c r="O5" t="n">
-        <v>53934.44517084676</v>
+        <v>53934.44517084675</v>
       </c>
       <c r="P5" t="n">
-        <v>53934.44517084676</v>
+        <v>53934.44517084675</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393232.1540643296</v>
+        <v>-390703.8329008872</v>
       </c>
       <c r="C6" t="n">
-        <v>196735.7251502149</v>
+        <v>199264.0463136573</v>
       </c>
       <c r="D6" t="n">
-        <v>196735.7251502149</v>
+        <v>199264.0463136571</v>
       </c>
       <c r="E6" t="n">
-        <v>230363.3251502148</v>
+        <v>232891.6463136572</v>
       </c>
       <c r="F6" t="n">
-        <v>77984.45812436607</v>
+        <v>232891.6463136572</v>
       </c>
       <c r="G6" t="n">
-        <v>198581.5699730752</v>
+        <v>33145.48687221319</v>
       </c>
       <c r="H6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.1388726682</v>
       </c>
       <c r="I6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.1388726682</v>
       </c>
       <c r="J6" t="n">
-        <v>90846.83821854623</v>
+        <v>93139.91968007536</v>
       </c>
       <c r="K6" t="n">
-        <v>267270.0574111391</v>
+        <v>269563.1388726682</v>
       </c>
       <c r="L6" t="n">
-        <v>267270.057411139</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="M6" t="n">
-        <v>267270.0574111391</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="N6" t="n">
-        <v>267270.0574111391</v>
+        <v>269563.1388726681</v>
       </c>
       <c r="O6" t="n">
-        <v>248509.0835940126</v>
+        <v>250238.5226847602</v>
       </c>
       <c r="P6" t="n">
-        <v>248509.0835940127</v>
+        <v>250238.5226847601</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380651</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380635</v>
+        <v>593.4761003380636</v>
       </c>
       <c r="I3" t="n">
         <v>593.4761003380635</v>
@@ -26802,13 +26802,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="I4" t="n">
-        <v>924.8974390827563</v>
+        <v>924.8974390827564</v>
       </c>
       <c r="J4" t="n">
         <v>924.8974390827563</v>
@@ -26826,10 +26826,10 @@
         <v>924.8974390827563</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,10 +26969,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>215.7324361209785</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>215.7324361209769</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250.6101663282006</v>
+        <v>250.6101663282008</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>250.6101663282006</v>
+        <v>250.6101663282008</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,13 +31750,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31774,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31862,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31932,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31947,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38583356919825</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055158</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651562</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937401</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779021</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712531</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074825</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335967</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822519</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426701</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457577</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810517</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916534</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840366</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182841</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847383</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070429</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512822</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842454</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900653</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947077</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671574</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607457</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080804</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784626</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308317</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888314</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207016</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784131</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490379</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889954</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676927</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441091</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714137</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>129.436164572092</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104783</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937817</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685361</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522795</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,10 +32227,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I17" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J17" t="n">
         <v>202.4946418937396</v>
@@ -32239,16 +32239,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712521</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M17" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359659</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O17" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P17" t="n">
         <v>343.0858495426692</v>
@@ -32266,7 +32266,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182829</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J18" t="n">
         <v>120.604421484738</v>
@@ -32321,31 +32321,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O18" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q18" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S18" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206991</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K19" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>159.1099695889949</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N19" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P19" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104759</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S19" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,10 +32464,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055151</v>
+        <v>24.43391804055152</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651536</v>
+        <v>91.97984867651539</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937396</v>
@@ -32476,16 +32476,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712521</v>
+        <v>376.5024309712522</v>
       </c>
       <c r="M20" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N20" t="n">
-        <v>425.7102483359659</v>
+        <v>425.710248335966</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822508</v>
+        <v>401.9861157822509</v>
       </c>
       <c r="P20" t="n">
         <v>343.0858495426692</v>
@@ -32503,7 +32503,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1908666855358595</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.95082441182829</v>
+        <v>43.9508244118283</v>
       </c>
       <c r="J21" t="n">
         <v>120.604421484738</v>
@@ -32558,31 +32558,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842445</v>
+        <v>323.4444746842446</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900644</v>
+        <v>332.0050874900645</v>
       </c>
       <c r="O21" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671567</v>
+        <v>243.7619099671568</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080783</v>
+        <v>79.25705355080784</v>
       </c>
       <c r="S21" t="n">
-        <v>23.7110498578462</v>
+        <v>23.71104985784621</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308303</v>
+        <v>5.145325813308304</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.0839824670289713</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206991</v>
+        <v>9.515075838206993</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784122</v>
+        <v>32.18391704784123</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490359</v>
+        <v>75.66333823490361</v>
       </c>
       <c r="K22" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L22" t="n">
-        <v>159.1099695889949</v>
+        <v>159.109969588995</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676922</v>
+        <v>167.7591540676923</v>
       </c>
       <c r="N22" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714133</v>
+        <v>151.2683017714134</v>
       </c>
       <c r="P22" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.61489115104759</v>
+        <v>89.6148911510476</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937805</v>
+        <v>48.12020970937806</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522782</v>
+        <v>4.572684707522783</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.05837469839390796</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35422,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35501,13 +35501,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.44873736705384</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>246.1526757020751</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802098</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513602</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233105</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588832</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.33749497130819</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
-        <v>245.091624262227</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748672</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122269</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>200.663375406732</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927643</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531412</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493115</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295333</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233377</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854534</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369855</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391266</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730411</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588823</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268333</v>
+        <v>68.29072693268336</v>
       </c>
       <c r="L18" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122261</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N18" t="n">
         <v>680.0057497502846</v>
@@ -35978,10 +35978,10 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P18" t="n">
-        <v>125.7087941787594</v>
+        <v>125.708794178759</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.96660727472377</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,19 +36048,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N19" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P19" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,22 +36118,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>190.5453525391269</v>
       </c>
       <c r="K20" t="n">
         <v>407.5425384040855</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517153</v>
+        <v>558.3972305517154</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730411</v>
+        <v>638.0987989730412</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513591</v>
+        <v>633.6441091513592</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233095</v>
+        <v>552.6880856233096</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588823</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>332.7559639452619</v>
+        <v>332.755963945262</v>
       </c>
       <c r="L21" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M21" t="n">
-        <v>229.4160469348671</v>
+        <v>647.0155045122262</v>
       </c>
       <c r="N21" t="n">
         <v>200.6633754067311</v>
@@ -36215,10 +36215,10 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>428.2502711927636</v>
+        <v>340.5859315097334</v>
       </c>
       <c r="Q21" t="n">
-        <v>233.0438950105729</v>
+        <v>22.9666072747238</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,19 +36285,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295328</v>
+        <v>207.3430310295329</v>
       </c>
       <c r="N22" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O22" t="n">
-        <v>175.853429685453</v>
+        <v>175.8534296854531</v>
       </c>
       <c r="P22" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353202</v>
+        <v>3.452847899353216</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452619</v>
+        <v>245.091624262232</v>
       </c>
       <c r="L24" t="n">
-        <v>408.1544505982835</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3104407622262</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N24" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O24" t="n">
         <v>554.9858674269919</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>68.29072693268333</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L27" t="n">
-        <v>206.9146238608617</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M27" t="n">
         <v>647.0155045122261</v>
       </c>
       <c r="N27" t="n">
-        <v>680.0057497502846</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927636</v>
+        <v>340.5859315097348</v>
       </c>
       <c r="Q27" t="n">
         <v>22.96660727472377</v>
@@ -36914,7 +36914,7 @@
         <v>332.7559639452619</v>
       </c>
       <c r="L30" t="n">
-        <v>421.7917611918366</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M30" t="n">
         <v>647.0155045122261</v>
@@ -36926,7 +36926,7 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P30" t="n">
-        <v>428.2502711927636</v>
+        <v>340.5859315097343</v>
       </c>
       <c r="Q30" t="n">
         <v>22.96660727472377</v>
@@ -37148,10 +37148,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>332.7559639452619</v>
+        <v>245.091624262232</v>
       </c>
       <c r="L33" t="n">
-        <v>421.7917611918366</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M33" t="n">
         <v>647.0155045122261</v>
@@ -37394,13 +37394,13 @@
         <v>647.0155045122261</v>
       </c>
       <c r="N36" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O36" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P36" t="n">
-        <v>340.5859315097343</v>
+        <v>255.1058764429101</v>
       </c>
       <c r="Q36" t="n">
         <v>22.96660727472377</v>
@@ -37631,13 +37631,13 @@
         <v>647.0155045122261</v>
       </c>
       <c r="N39" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O39" t="n">
-        <v>554.9858674269919</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P39" t="n">
-        <v>340.5859315097343</v>
+        <v>255.1058764429101</v>
       </c>
       <c r="Q39" t="n">
         <v>22.96660727472377</v>
@@ -37786,7 +37786,7 @@
         <v>140.7360160012649</v>
       </c>
       <c r="M41" t="n">
-        <v>638.0987989730411</v>
+        <v>556.6870392399146</v>
       </c>
       <c r="N41" t="n">
         <v>633.6441091513591</v>
@@ -37795,7 +37795,7 @@
         <v>552.6880856233095</v>
       </c>
       <c r="P41" t="n">
-        <v>352.2398022257565</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q41" t="n">
         <v>247.6524856312122</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>332.7559639452619</v>
+        <v>245.0916242622322</v>
       </c>
       <c r="L42" t="n">
         <v>509.4561008748665</v>
@@ -37874,7 +37874,7 @@
         <v>554.9858674269919</v>
       </c>
       <c r="P42" t="n">
-        <v>340.5859315097339</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q42" t="n">
         <v>22.96660727472377</v>
@@ -38014,25 +38014,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>21.4487373670533</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K44" t="n">
-        <v>118.4378503807317</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L44" t="n">
-        <v>558.3972305517153</v>
+        <v>215.7441435967889</v>
       </c>
       <c r="M44" t="n">
         <v>638.0987989730411</v>
       </c>
       <c r="N44" t="n">
-        <v>633.6441091513591</v>
+        <v>196.297184739375</v>
       </c>
       <c r="O44" t="n">
         <v>552.6880856233095</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537873996</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q44" t="n">
         <v>35.33749497130751</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>68.29072693268333</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L45" t="n">
         <v>509.4561008748665</v>
@@ -38105,13 +38105,13 @@
         <v>647.0155045122261</v>
       </c>
       <c r="N45" t="n">
-        <v>377.46427273628</v>
+        <v>200.6633754067311</v>
       </c>
       <c r="O45" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P45" t="n">
-        <v>428.2502711927636</v>
+        <v>340.5859315097339</v>
       </c>
       <c r="Q45" t="n">
         <v>22.96660727472377</v>
